--- a/data/市场数据/D- 造船三大指标.xlsx
+++ b/data/市场数据/D- 造船三大指标.xlsx
@@ -1,31 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_yyang\bg-steel-price-trend-forecast\data\市场数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99836BEA-C1BB-497E-8ED4-3198CCD0280B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17830" windowHeight="10330"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>eJzNVc1u00AQvvcprJVqwYHGdpwfo2wq0VBRCXrhwi3a2JuwYncd7DVJeJ72gJQDtE2lSKACEqhCihSJyqrEGyBOHDkxtvMHpbS5QCxbnpmd2ZlvdnZm2w9ExAnG9x7Vd7Z3dmv1u7U7N4yb+pYvBJUKVza7gmvPaBAyX2JkbhhIo9L1PSZbGLUaT9BmtUK9hvQ9Wl3T4KkkpOb6kVRBD6N4PPyBNI8oEvpR4FKMhnvjDwcnqYw2aIvBtpZh5E0rb2ZCKr1EZNmGkwd3HnWZIBxEQLOwzUmPgcJDw7DKeadkFyCirkt5E7AQhZGxYRh1DWnNgD6NIFYI4gHSfjcRvhdxiAZ8SiKAOPt21B99He69O7n99svrj/EAaYFiyUoSimmYEEokGTgYfT87j8+PY5Srrv1ztMXl0RavRjvqvzq9FO/6fwFaXh5o+Q9Ax+8Px28+H/UPXh6/GOyv9NE6yyN2rod49Y63YC4NNjG5APZTfBhPoa7szc0X8rblLHVzZybXQXz18aaNuctDz+9I7hOvTQIiLkfWZJKFj38BB9JQkUAtqkLf79AGRiqIKHCirXpNxiEDYMBJqGpghFFGq16bpgvSV6lmxkQiWYRNbaQp0uA0yVymWwIJIAqIbNGQZrsqpjhl0uWRBxq2M+39adCTvPbguSVEesZpakN1n4Wq2lE41dWjkLQoFsQNfP15ox6qAE/Gwrq1NWmZM6o8o5wpVTCBmhxQskGWeAOEFz59Xgjz4QML8968yJQXGWeBST3Oq0JvTsY2+LDh/euvkltMAlRCJTed1/o243Q3qar5OMhu0OC0PqmjYt20bdss/QSERsew</t>
         </r>
@@ -119,16 +138,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,360 +156,31 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -502,251 +188,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -754,61 +198,17 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1091,36 +491,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52:K53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="9.54545454545454"/>
-    <col min="6" max="6" width="10.6363636363636"/>
-    <col min="7" max="7" width="9.54545454545454"/>
+    <col min="2" max="3" width="9.53125"/>
+    <col min="4" max="4" width="22.9296875" customWidth="1"/>
+    <col min="5" max="5" width="9.53125"/>
+    <col min="6" max="6" width="10.59765625"/>
+    <col min="7" max="7" width="9.53125"/>
+    <col min="9" max="9" width="11.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="str">
-        <f>HX_IFIND_EDB(0)</f>
-        <v>同花顺iFinD</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="e">
+        <f ca="1">HX_IFIND_EDB(0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1166,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1281,7 +684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +707,7 @@
         <v>20241010</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>37986</v>
       </c>
@@ -1326,8 +729,12 @@
       <c r="G10" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="3">
+        <f>D11-D10</f>
+        <v>-271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>38352</v>
       </c>
@@ -1349,8 +756,12 @@
       <c r="G11" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" s="3">
+        <f>D12-D11</f>
+        <v>-1302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>38442</v>
       </c>
@@ -1372,8 +783,12 @@
       <c r="G12" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" s="3">
+        <f t="shared" ref="I12:I35" si="0">D13-D12</f>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>38533</v>
       </c>
@@ -1395,8 +810,12 @@
       <c r="G13" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" s="3">
+        <f>D14-D13</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>38625</v>
       </c>
@@ -1418,8 +837,12 @@
       <c r="G14" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" s="3">
+        <f>D15-D14</f>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>38717</v>
       </c>
@@ -1441,8 +864,12 @@
       <c r="G15" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>-956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
@@ -1464,8 +891,12 @@
       <c r="G16" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>38898</v>
       </c>
@@ -1487,8 +918,12 @@
       <c r="G17" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>38990</v>
       </c>
@@ -1510,8 +945,12 @@
       <c r="G18" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>39082</v>
       </c>
@@ -1533,8 +972,12 @@
       <c r="G19" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>-3008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>39172</v>
       </c>
@@ -1556,8 +999,12 @@
       <c r="G20" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>39263</v>
       </c>
@@ -1579,8 +1026,12 @@
       <c r="G21" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>39355</v>
       </c>
@@ -1602,8 +1053,12 @@
       <c r="G22" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>39447</v>
       </c>
@@ -1625,8 +1080,12 @@
       <c r="G23" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>-8529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>39538</v>
       </c>
@@ -1648,8 +1107,12 @@
       <c r="G24" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>39629</v>
       </c>
@@ -1671,8 +1134,12 @@
       <c r="G25" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>39721</v>
       </c>
@@ -1694,8 +1161,12 @@
       <c r="G26" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>39813</v>
       </c>
@@ -1715,8 +1186,12 @@
       <c r="G27" s="3">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>-5818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>39844</v>
       </c>
@@ -1728,8 +1203,12 @@
       <c r="G28" s="3">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>39872</v>
       </c>
@@ -1751,8 +1230,12 @@
       <c r="G29" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>39903</v>
       </c>
@@ -1772,10 +1255,14 @@
         <v>19934</v>
       </c>
       <c r="G30" s="3">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>39933</v>
       </c>
@@ -1797,8 +1284,12 @@
       <c r="G31" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>39964</v>
       </c>
@@ -1820,8 +1311,12 @@
       <c r="G32" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>39994</v>
       </c>
@@ -1841,8 +1336,12 @@
         <v>16793</v>
       </c>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" s="3">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>40025</v>
       </c>
@@ -1862,8 +1361,12 @@
         <v>19235</v>
       </c>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" s="3">
+        <f>D35-D34</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>40056</v>
       </c>
@@ -1883,8 +1386,12 @@
         <v>19086</v>
       </c>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>40086</v>
       </c>
@@ -1905,7 +1412,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>40117</v>
       </c>
@@ -1926,7 +1433,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>40147</v>
       </c>
@@ -1947,7 +1454,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>40178</v>
       </c>
@@ -1970,7 +1477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>40237</v>
       </c>
@@ -1989,7 +1496,7 @@
       </c>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40268</v>
       </c>
@@ -2008,7 +1515,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40298</v>
       </c>
@@ -2027,7 +1534,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>40329</v>
       </c>
@@ -2046,7 +1553,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>40359</v>
       </c>
@@ -2065,7 +1572,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>40390</v>
       </c>
@@ -2084,7 +1591,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>40421</v>
       </c>
@@ -2105,7 +1612,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>40451</v>
       </c>
@@ -2126,7 +1633,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>40482</v>
       </c>
@@ -2147,7 +1654,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>40512</v>
       </c>
@@ -2168,7 +1675,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>40543</v>
       </c>
@@ -2187,7 +1694,7 @@
       </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>40602</v>
       </c>
@@ -2207,10 +1714,10 @@
         <v>19466</v>
       </c>
       <c r="G51" s="3">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>40633</v>
       </c>
@@ -2233,7 +1740,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>40663</v>
       </c>
@@ -2256,7 +1763,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>40694</v>
       </c>
@@ -2279,7 +1786,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>40724</v>
       </c>
@@ -2287,13 +1794,13 @@
         <v>3092</v>
       </c>
       <c r="C55" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D55" s="3">
         <v>2160</v>
       </c>
       <c r="E55" s="3">
-        <v>-9.2</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="F55" s="3">
         <v>18176</v>
@@ -2302,7 +1809,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>40755</v>
       </c>
@@ -2310,7 +1817,7 @@
         <v>3846</v>
       </c>
       <c r="C56" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D56" s="3">
         <v>2358</v>
@@ -2325,7 +1832,7 @@
         <v>-6.4</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>40786</v>
       </c>
@@ -2348,7 +1855,7 @@
         <v>-9.4</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>40816</v>
       </c>
@@ -2371,7 +1878,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>40847</v>
       </c>
@@ -2394,7 +1901,7 @@
         <v>-15.9</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>40877</v>
       </c>
@@ -2402,7 +1909,7 @@
         <v>6177</v>
       </c>
       <c r="C60" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D60" s="3">
         <v>3369</v>
@@ -2414,10 +1921,10 @@
         <v>16270</v>
       </c>
       <c r="G60" s="3">
-        <v>-17.4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-17.399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>40908</v>
       </c>
@@ -2425,7 +1932,7 @@
         <v>7665</v>
       </c>
       <c r="C61" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D61" s="3">
         <v>3622</v>
@@ -2440,7 +1947,7 @@
         <v>-23.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>40968</v>
       </c>
@@ -2463,7 +1970,7 @@
         <v>-24.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>40999</v>
       </c>
@@ -2486,7 +1993,7 @@
         <v>-25.3</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>41029</v>
       </c>
@@ -2509,7 +2016,7 @@
         <v>-26.1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>41060</v>
       </c>
@@ -2532,7 +2039,7 @@
         <v>-27</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>41090</v>
       </c>
@@ -2555,7 +2062,7 @@
         <v>-30.7</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>41121</v>
       </c>
@@ -2578,7 +2085,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>41152</v>
       </c>
@@ -2601,7 +2108,7 @@
         <v>-29.6</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>41182</v>
       </c>
@@ -2624,7 +2131,7 @@
         <v>-28.4</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>41213</v>
       </c>
@@ -2647,7 +2154,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>41243</v>
       </c>
@@ -2670,7 +2177,7 @@
         <v>-30.3</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>41274</v>
       </c>
@@ -2693,7 +2200,7 @@
         <v>-28.7</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>41333</v>
       </c>
@@ -2716,7 +2223,7 @@
         <v>-27.4</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>41364</v>
       </c>
@@ -2730,7 +2237,7 @@
         <v>957</v>
       </c>
       <c r="E74" s="3">
-        <v>71.1</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F74" s="3">
         <v>10700</v>
@@ -2739,7 +2246,7 @@
         <v>-24.6</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>41394</v>
       </c>
@@ -2762,7 +2269,7 @@
         <v>-24.8</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>41425</v>
       </c>
@@ -2785,7 +2292,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>41455</v>
       </c>
@@ -2808,7 +2315,7 @@
         <v>-13.4</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>41486</v>
       </c>
@@ -2822,16 +2329,16 @@
         <v>2976</v>
       </c>
       <c r="E78" s="3">
-        <v>155.7</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="F78" s="3">
         <v>11152</v>
       </c>
       <c r="G78" s="3">
-        <v>-9.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>41517</v>
       </c>
@@ -2845,7 +2352,7 @@
         <v>3491</v>
       </c>
       <c r="E79" s="3">
-        <v>139.3</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="F79" s="3">
         <v>11464</v>
@@ -2854,7 +2361,7 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>41547</v>
       </c>
@@ -2877,7 +2384,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>41578</v>
       </c>
@@ -2897,10 +2404,10 @@
         <v>11787</v>
       </c>
       <c r="G81" s="3">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>41608</v>
       </c>
@@ -2923,7 +2430,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>41639</v>
       </c>
@@ -2946,7 +2453,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>41698</v>
       </c>
@@ -2969,7 +2476,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>41729</v>
       </c>
@@ -2992,7 +2499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>41759</v>
       </c>
@@ -3015,7 +2522,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>41790</v>
       </c>
@@ -3038,7 +2545,7 @@
         <v>41.4</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>41820</v>
       </c>
@@ -3061,7 +2568,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>41851</v>
       </c>
@@ -3084,7 +2591,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>41882</v>
       </c>
@@ -3092,13 +2599,13 @@
         <v>2208</v>
       </c>
       <c r="C90" s="3">
-        <v>-18.1</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="D90" s="3">
         <v>4740</v>
       </c>
       <c r="E90" s="3">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F90" s="3">
         <v>15370</v>
@@ -3107,7 +2614,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>41912</v>
       </c>
@@ -3127,10 +2634,10 @@
         <v>15471</v>
       </c>
       <c r="G91" s="3">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>41943</v>
       </c>
@@ -3153,7 +2660,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>41973</v>
       </c>
@@ -3176,7 +2683,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>42004</v>
       </c>
@@ -3199,7 +2706,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>42063</v>
       </c>
@@ -3213,7 +2720,7 @@
         <v>382</v>
       </c>
       <c r="E95" s="3">
-        <v>-78.9</v>
+        <v>-78.900000000000006</v>
       </c>
       <c r="F95" s="3">
         <v>14760</v>
@@ -3222,7 +2729,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>42094</v>
       </c>
@@ -3245,7 +2752,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>42124</v>
       </c>
@@ -3253,13 +2760,13 @@
         <v>1247</v>
       </c>
       <c r="C97" s="3">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D97" s="3">
         <v>663</v>
       </c>
       <c r="E97" s="3">
-        <v>-78.1</v>
+        <v>-78.099999999999994</v>
       </c>
       <c r="F97" s="3">
         <v>13996</v>
@@ -3268,7 +2775,7 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>42155</v>
       </c>
@@ -3276,22 +2783,22 @@
         <v>1548</v>
       </c>
       <c r="C98" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D98" s="3">
         <v>786</v>
       </c>
       <c r="E98" s="3">
-        <v>-77.4</v>
+        <v>-77.400000000000006</v>
       </c>
       <c r="F98" s="3">
         <v>13818</v>
       </c>
       <c r="G98" s="3">
-        <v>-8.2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>42185</v>
       </c>
@@ -3305,16 +2812,16 @@
         <v>1119</v>
       </c>
       <c r="E99" s="3">
-        <v>-72.6</v>
+        <v>-72.599999999999994</v>
       </c>
       <c r="F99" s="3">
         <v>13807</v>
       </c>
       <c r="G99" s="3">
-        <v>-9.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>42216</v>
       </c>
@@ -3322,13 +2829,13 @@
         <v>2269</v>
       </c>
       <c r="C100" s="3">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D100" s="3">
         <v>1400</v>
       </c>
       <c r="E100" s="3">
-        <v>-69.4</v>
+        <v>-69.400000000000006</v>
       </c>
       <c r="F100" s="3">
         <v>13670</v>
@@ -3337,7 +2844,7 @@
         <v>-10.9</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>42247</v>
       </c>
@@ -3360,7 +2867,7 @@
         <v>-12.1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>42277</v>
       </c>
@@ -3374,7 +2881,7 @@
         <v>1816</v>
       </c>
       <c r="E102" s="3">
-        <v>-65.4</v>
+        <v>-65.400000000000006</v>
       </c>
       <c r="F102" s="3">
         <v>13327</v>
@@ -3383,7 +2890,7 @@
         <v>-13.9</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>42308</v>
       </c>
@@ -3406,7 +2913,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>42338</v>
       </c>
@@ -3429,7 +2936,7 @@
         <v>-15.1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>42369</v>
       </c>
@@ -3452,7 +2959,7 @@
         <v>-12.3</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>42429</v>
       </c>
@@ -3466,16 +2973,16 @@
         <v>95</v>
       </c>
       <c r="E106" s="3">
-        <v>-75.1</v>
+        <v>-75.099999999999994</v>
       </c>
       <c r="F106" s="3">
         <v>11898</v>
       </c>
       <c r="G106" s="3">
-        <v>-19.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>42460</v>
       </c>
@@ -3498,7 +3005,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>42490</v>
       </c>
@@ -3521,7 +3028,7 @@
         <v>-11.2</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>42521</v>
       </c>
@@ -3529,7 +3036,7 @@
         <v>1283</v>
       </c>
       <c r="C109" s="3">
-        <v>-17.1</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="D109" s="3">
         <v>1438</v>
@@ -3544,7 +3051,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>42551</v>
       </c>
@@ -3567,7 +3074,7 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>42582</v>
       </c>
@@ -3590,7 +3097,7 @@
         <v>-14.2</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>42613</v>
       </c>
@@ -3613,7 +3120,7 @@
         <v>-15.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>42643</v>
       </c>
@@ -3633,10 +3140,10 @@
         <v>10930</v>
       </c>
       <c r="G113" s="3">
-        <v>-18.1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>-18.100000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>42674</v>
       </c>
@@ -3659,7 +3166,7 @@
         <v>-20.6</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>42704</v>
       </c>
@@ -3679,10 +3186,10 @@
         <v>10301</v>
       </c>
       <c r="G115" s="3">
-        <v>-20.4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>-20.399999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>42735</v>
       </c>
@@ -3705,7 +3212,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>42794</v>
       </c>
@@ -3728,7 +3235,7 @@
         <v>-22.6</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>42825</v>
       </c>
@@ -3751,7 +3258,7 @@
         <v>-26.3</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>42855</v>
       </c>
@@ -3759,7 +3266,7 @@
         <v>1856</v>
       </c>
       <c r="C119" s="3">
-        <v>71.9</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D119" s="3">
         <v>665</v>
@@ -3774,7 +3281,7 @@
         <v>-30.3</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>42886</v>
       </c>
@@ -3797,7 +3304,7 @@
         <v>-30.7</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>42916</v>
       </c>
@@ -3820,7 +3327,7 @@
         <v>-30.5</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>42947</v>
       </c>
@@ -3843,7 +3350,7 @@
         <v>-31.5</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>42978</v>
       </c>
@@ -3866,7 +3373,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43008</v>
       </c>
@@ -3880,7 +3387,7 @@
         <v>2013</v>
       </c>
       <c r="E124" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F124" s="3">
         <v>8123</v>
@@ -3889,7 +3396,7 @@
         <v>-25.7</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43039</v>
       </c>
@@ -3903,7 +3410,7 @@
         <v>2220</v>
       </c>
       <c r="E125" s="3">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F125" s="3">
         <v>8118</v>
@@ -3912,7 +3419,7 @@
         <v>-23.4</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43069</v>
       </c>
@@ -3935,7 +3442,7 @@
         <v>-20.7</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43100</v>
       </c>
@@ -3958,7 +3465,7 @@
         <v>-12.4</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43159</v>
       </c>
@@ -3981,7 +3488,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43190</v>
       </c>
@@ -4004,7 +3511,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43220</v>
       </c>
@@ -4027,7 +3534,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43251</v>
       </c>
@@ -4050,7 +3557,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43281</v>
       </c>
@@ -4073,7 +3580,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43312</v>
       </c>
@@ -4087,7 +3594,7 @@
         <v>2404</v>
       </c>
       <c r="E133" s="3">
-        <v>81.6</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="F133" s="3">
         <v>8946</v>
@@ -4096,7 +3603,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43343</v>
       </c>
@@ -4119,7 +3626,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43373</v>
       </c>
@@ -4133,7 +3640,7 @@
         <v>2682</v>
       </c>
       <c r="E135" s="3">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F135" s="3">
         <v>8654</v>
@@ -4142,7 +3649,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>43404</v>
       </c>
@@ -4165,7 +3672,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>43434</v>
       </c>
@@ -4173,7 +3680,7 @@
         <v>3293</v>
       </c>
       <c r="C137" s="3">
-        <v>-17.4</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="D137" s="3">
         <v>3306</v>
@@ -4188,7 +3695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>43465</v>
       </c>
@@ -4202,7 +3709,7 @@
         <v>3667</v>
       </c>
       <c r="E138" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F138" s="3">
         <v>8931</v>
@@ -4211,7 +3718,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>43524</v>
       </c>
@@ -4225,16 +3732,16 @@
         <v>235</v>
       </c>
       <c r="E139" s="3">
-        <v>-80.9</v>
+        <v>-80.900000000000006</v>
       </c>
       <c r="F139" s="3">
         <v>8514</v>
       </c>
       <c r="G139" s="3">
-        <v>-8.3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>43555</v>
       </c>
@@ -4248,7 +3755,7 @@
         <v>459</v>
       </c>
       <c r="E140" s="3">
-        <v>-70.4</v>
+        <v>-70.400000000000006</v>
       </c>
       <c r="F140" s="3">
         <v>8428</v>
@@ -4257,7 +3764,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>43585</v>
       </c>
@@ -4280,7 +3787,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>43616</v>
       </c>
@@ -4303,7 +3810,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>43646</v>
       </c>
@@ -4326,7 +3833,7 @@
         <v>-10.3</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>43677</v>
       </c>
@@ -4349,7 +3856,7 @@
         <v>-8.4</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43708</v>
       </c>
@@ -4372,7 +3879,7 @@
         <v>-10.4</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43738</v>
       </c>
@@ -4392,10 +3899,10 @@
         <v>7941</v>
       </c>
       <c r="G146" s="3">
-        <v>-8.2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43769</v>
       </c>
@@ -4403,7 +3910,7 @@
         <v>3163</v>
       </c>
       <c r="C147" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D147" s="3">
         <v>2119</v>
@@ -4418,7 +3925,7 @@
         <v>-7.7</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43799</v>
       </c>
@@ -4441,7 +3948,7 @@
         <v>-8.6</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43830</v>
       </c>
@@ -4464,7 +3971,7 @@
         <v>-8.6</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43890</v>
       </c>
@@ -4487,7 +3994,7 @@
         <v>-5.7</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43921</v>
       </c>
@@ -4510,7 +4017,7 @@
         <v>-5.6</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>43951</v>
       </c>
@@ -4518,13 +4025,13 @@
         <v>1098</v>
       </c>
       <c r="C152" s="3">
-        <v>-17.1</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="D152" s="3">
         <v>988</v>
       </c>
       <c r="E152" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F152" s="3">
         <v>8056</v>
@@ -4533,7 +4040,7 @@
         <v>-5.8</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>43982</v>
       </c>
@@ -4556,7 +4063,7 @@
         <v>-5.3</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>44012</v>
       </c>
@@ -4579,7 +4086,7 @@
         <v>-6.3</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>44043</v>
       </c>
@@ -4602,7 +4109,7 @@
         <v>-7.7</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>44074</v>
       </c>
@@ -4622,10 +4129,10 @@
         <v>7257</v>
       </c>
       <c r="G156" s="3">
-        <v>-8.2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>-8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>44104</v>
       </c>
@@ -4648,7 +4155,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>44135</v>
       </c>
@@ -4671,7 +4178,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>44165</v>
       </c>
@@ -4685,7 +4192,7 @@
         <v>2252</v>
       </c>
       <c r="E159" s="3">
-        <v>-8.7</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="F159" s="3">
         <v>7094</v>
@@ -4694,7 +4201,7 @@
         <v>-11.1</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>44196</v>
       </c>
@@ -4702,7 +4209,7 @@
         <v>3853</v>
       </c>
       <c r="C160" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D160" s="3">
         <v>2893</v>
@@ -4717,7 +4224,7 @@
         <v>-12.9</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>44255</v>
       </c>
@@ -4740,7 +4247,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>44286</v>
       </c>
@@ -4748,7 +4255,7 @@
         <v>979</v>
       </c>
       <c r="C162" s="3">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D162" s="3">
         <v>1720</v>
@@ -4763,7 +4270,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>44316</v>
       </c>
@@ -4771,7 +4278,7 @@
         <v>1281</v>
       </c>
       <c r="C163" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D163" s="3">
         <v>2787</v>
@@ -4786,7 +4293,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>44347</v>
       </c>
@@ -4809,7 +4316,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>44377</v>
       </c>
@@ -4832,7 +4339,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>44408</v>
       </c>
@@ -4852,10 +4359,10 @@
         <v>8967</v>
       </c>
       <c r="G166" s="3">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>44439</v>
       </c>
@@ -4878,7 +4385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>44469</v>
       </c>
@@ -4898,10 +4405,10 @@
         <v>9244</v>
       </c>
       <c r="G168" s="3">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>44500</v>
       </c>
@@ -4921,10 +4428,10 @@
         <v>9810</v>
       </c>
       <c r="G169" s="3">
-        <v>38.2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>44530</v>
       </c>
@@ -4947,7 +4454,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>44561</v>
       </c>
@@ -4961,16 +4468,16 @@
         <v>6707</v>
       </c>
       <c r="E171" s="3">
-        <v>131.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="F171" s="3">
         <v>9584</v>
       </c>
       <c r="G171" s="3">
-        <v>34.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>44620</v>
       </c>
@@ -4990,10 +4497,10 @@
         <v>9790</v>
       </c>
       <c r="G172" s="3">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>44651</v>
       </c>
@@ -5016,7 +4523,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>44681</v>
       </c>
@@ -5039,7 +4546,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>44712</v>
       </c>
@@ -5062,7 +4569,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>44742</v>
       </c>
@@ -5082,10 +4589,10 @@
         <v>10274</v>
       </c>
       <c r="G176" s="3">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>44773</v>
       </c>
@@ -5108,7 +4615,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>44804</v>
       </c>
@@ -5131,7 +4638,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>44834</v>
       </c>
@@ -5154,7 +4661,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>44865</v>
       </c>
@@ -5168,7 +4675,7 @@
         <v>3740</v>
       </c>
       <c r="E180" s="3">
-        <v>-39.2</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="F180" s="3">
         <v>10444</v>
@@ -5177,7 +4684,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>44895</v>
       </c>
@@ -5191,7 +4698,7 @@
         <v>3960</v>
       </c>
       <c r="E181" s="3">
-        <v>-37.8</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="F181" s="3">
         <v>10361</v>
@@ -5200,7 +4707,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>44926</v>
       </c>
@@ -5208,7 +4715,7 @@
         <v>3786</v>
       </c>
       <c r="C182" s="3">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D182" s="3">
         <v>4552</v>
@@ -5220,10 +4727,10 @@
         <v>10557</v>
       </c>
       <c r="G182" s="3">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>44985</v>
       </c>
@@ -5231,7 +4738,7 @@
         <v>423</v>
       </c>
       <c r="C183" s="3">
-        <v>-35.3</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="D183" s="3">
         <v>925</v>
@@ -5243,10 +4750,10 @@
         <v>11364</v>
       </c>
       <c r="G183" s="3">
-        <v>16.1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>45016</v>
       </c>
@@ -5254,7 +4761,7 @@
         <v>917</v>
       </c>
       <c r="C184" s="3">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D184" s="3">
         <v>1518</v>
@@ -5269,7 +4776,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>45046</v>
       </c>
@@ -5277,7 +4784,7 @@
         <v>1280</v>
       </c>
       <c r="C185" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D185" s="3">
         <v>1985</v>
@@ -5292,7 +4799,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>45077</v>
       </c>
@@ -5315,7 +4822,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>45107</v>
       </c>
@@ -5338,7 +4845,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>45138</v>
       </c>
@@ -5361,7 +4868,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>45169</v>
       </c>
@@ -5369,7 +4876,7 @@
         <v>2798</v>
       </c>
       <c r="C189" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D189" s="3">
         <v>5231</v>
@@ -5384,7 +4891,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>45199</v>
       </c>
@@ -5407,7 +4914,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>45230</v>
       </c>
@@ -5430,7 +4937,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>45260</v>
       </c>
@@ -5453,7 +4960,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>45291</v>
       </c>
@@ -5476,7 +4983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>45351</v>
       </c>
@@ -5490,7 +4997,7 @@
         <v>1520</v>
       </c>
       <c r="E194" s="3">
-        <v>64.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="F194" s="3">
         <v>14919</v>
@@ -5499,7 +5006,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>45382</v>
       </c>
@@ -5507,7 +5014,7 @@
         <v>1235</v>
       </c>
       <c r="C195" s="3">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="D195" s="3">
         <v>2414</v>
@@ -5522,7 +5029,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>45473</v>
       </c>
@@ -5530,7 +5037,7 @@
         <v>2502</v>
       </c>
       <c r="C196" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D196" s="3">
         <v>5422</v>
@@ -5545,7 +5052,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>45565</v>
       </c>
@@ -5569,8 +5076,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>